--- a/data/【template】deposit.xlsx
+++ b/data/【template】deposit.xlsx
@@ -182,7 +182,9 @@
     </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
-        <t>A01：统一社会信用代码, A02：组织机构代码, A03：其他</t>
+        <t>A01：统一社会信用代码
+A02：组织机构代码
+A03：其他</t>
       </text>
     </comment>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -197,7 +199,8 @@
     </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
-        <t>如果是境内客户，采用《中华人民共和国行政区划代码》（GB/T 2260)的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”。, 如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》GB/T 2659最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。具体代码见码值表“C0013-国家地区代码”。</t>
+        <t>如果是境内客户，采用《中华人民共和国行政区划代码》（GB/T 2260)的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”。
+如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》GB/T 2659最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。具体代码见码值表“C0013-国家地区代码”。</t>
       </text>
     </comment>
     <comment ref="G1" authorId="0" shapeId="0">
@@ -212,7 +215,50 @@
     </comment>
     <comment ref="I1" authorId="0" shapeId="0">
       <text>
-        <t>D01：普通存款, D011：单位活期存款, D012：单位定期存款, D013：活期储蓄存款, D014：定期储蓄存款, D02：定活两便存款, D03：通知存款, D04：协议存款, D05：协定存款, D051：结算户存款, D052：协定户存款, D06：保证金存款, D061：银行承兑汇票保证金存款, D062：信用证保证金存款, D063：保函保证金存款, D064：银行本票保证金存款, D065：信用卡保证金存款, D066：金融衍生产品交易保证金存款, D067：黄金交易保证金存款, D068：证券交易保证金存款, D069：其他保证金存款, D07：应解汇款及临时存款, D08：结构性存款, D09：信用卡存款, D091：贷记卡存款, D092：准贷记卡存款, D10：财政性存款, D101：国库存款, D1011：财政库款, D1012：财政过渡存款, D109：其他财政存款, D1091：划缴财政存款, D1092：待结算财政款项, D1093：财政专用基金存款, D1094：财政预算外存款, D1095：国库定期存款, D11：第三方存管存款, D12：准备金存款, D13：存放, D14：特种存款, D15：委托资金存款（净）, D16：大额存单, D99：其他存款, 必须填写最底层类别。</t>
+        <t>D01：普通存款
+D011：单位活期存款
+D012：单位定期存款
+D013：活期储蓄存款
+D014：定期储蓄存款
+D02：定活两便存款
+D03：通知存款
+D04：协议存款
+D05：协定存款
+D051：结算户存款
+D052：协定户存款
+D06：保证金存款
+D061：银行承兑汇票保证金存款
+D062：信用证保证金存款
+D063：保函保证金存款
+D064：银行本票保证金存款
+D065：信用卡保证金存款
+D066：金融衍生产品交易保证金存款
+D067：黄金交易保证金存款
+D068：证券交易保证金存款
+D069：其他保证金存款
+D07：应解汇款及临时存款
+D08：结构性存款
+D09：信用卡存款
+D091：贷记卡存款
+D092：准贷记卡存款
+D10：财政性存款
+D101：国库存款
+D1011：财政库款
+D1012：财政过渡存款
+D109：其他财政存款
+D1091：划缴财政存款
+D1092：待结算财政款项
+D1093：财政专用基金存款
+D1094：财政预算外存款
+D1095：国库定期存款
+D11：第三方存管存款
+D12：准备金存款
+D13：存放
+D14：特种存款
+D15：委托资金存款（净）
+D16：大额存单
+D99：其他存款
+必须填写最底层类别。</t>
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0">
@@ -222,12 +268,15 @@
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
       <text>
-        <t>日期格式：YYYY-MM-DD。, 通知存款若到期日不能确定，一天、七天提前通知存款的协议到期日分别填写“1999-01-01”、“1999-01-07”。, 如业务类型为活期等业务没有到期日，默认为“9999-12-31”。</t>
+        <t>日期格式：YYYY-MM-DD。
+通知存款若到期日不能确定，一天、七天提前通知存款的协议到期日分别填写“1999-01-01”、“1999-01-07”。
+如业务类型为活期等业务没有到期日，默认为“9999-12-31”。</t>
       </text>
     </comment>
     <comment ref="L1" authorId="0" shapeId="0">
       <text>
-        <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+        <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
       </text>
     </comment>
     <comment ref="M1" authorId="0" shapeId="0">
@@ -247,7 +296,10 @@
     </comment>
     <comment ref="P1" authorId="0" shapeId="0">
       <text>
-        <t>DR01：不缴存, DR02：全额缴存, DR03：比例缴存, DR04：净额缴存</t>
+        <t>DR01：不缴存
+DR02：全额缴存
+DR03：比例缴存
+DR04：净额缴存</t>
       </text>
     </comment>
   </commentList>
@@ -272,7 +324,9 @@
     </comment>
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
-        <t>A01：统一社会信用代码, A02：组织机构代码, A03：其他</t>
+        <t>A01：统一社会信用代码
+A02：组织机构代码
+A03：其他</t>
       </text>
     </comment>
     <comment ref="D1" authorId="0" shapeId="0">
@@ -287,7 +341,8 @@
     </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
-        <t>如果是境内客户，采用《中华人民共和国行政区划代码》（GB/T 2260)的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”。, 如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》GB/T 2659最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。具体代码见码值表“C0013-国家地区代码”。</t>
+        <t>如果是境内客户，采用《中华人民共和国行政区划代码》（GB/T 2260)的县（区）级数字码，具体代码见码值表“C0009-行政区划代码”。
+如果是境外客户，前3位用“000”填充，后3位采用《世界各国和地区名称代码》GB/T 2659最新标准的3位国别阿拉伯数字代码（客户注册地为港澳台的，应按境外客户填报地区代码，不得填报行政区划代码如810000、820000等）。具体代码见码值表“C0013-国家地区代码”。</t>
       </text>
     </comment>
     <comment ref="G1" authorId="0" shapeId="0">
@@ -302,7 +357,50 @@
     </comment>
     <comment ref="I1" authorId="0" shapeId="0">
       <text>
-        <t>D01：普通存款, D011：单位活期存款, D012：单位定期存款, D013：活期储蓄存款, D014：定期储蓄存款, D02：定活两便存款, D03：通知存款, D04：协议存款, D05：协定存款, D051：结算户存款, D052：协定户存款, D06：保证金存款, D061：银行承兑汇票保证金存款, D062：信用证保证金存款, D063：保函保证金存款, D064：银行本票保证金存款, D065：信用卡保证金存款, D066：金融衍生产品交易保证金存款, D067：黄金交易保证金存款, D068：证券交易保证金存款, D069：其他保证金存款, D07：应解汇款及临时存款, D08：结构性存款, D09：信用卡存款, D091：贷记卡存款, D092：准贷记卡存款, D10：财政性存款, D101：国库存款, D1011：财政库款, D1012：财政过渡存款, D109：其他财政存款, D1091：划缴财政存款, D1092：待结算财政款项, D1093：财政专用基金存款, D1094：财政预算外存款, D1095：国库定期存款, D11：第三方存管存款, D12：准备金存款, D13：存放, D14：特种存款, D15：委托资金存款（净）, D16：大额存单, D99：其他存款, 必须填写最底层类别。</t>
+        <t>D01：普通存款
+D011：单位活期存款
+D012：单位定期存款
+D013：活期储蓄存款
+D014：定期储蓄存款
+D02：定活两便存款
+D03：通知存款
+D04：协议存款
+D05：协定存款
+D051：结算户存款
+D052：协定户存款
+D06：保证金存款
+D061：银行承兑汇票保证金存款
+D062：信用证保证金存款
+D063：保函保证金存款
+D064：银行本票保证金存款
+D065：信用卡保证金存款
+D066：金融衍生产品交易保证金存款
+D067：黄金交易保证金存款
+D068：证券交易保证金存款
+D069：其他保证金存款
+D07：应解汇款及临时存款
+D08：结构性存款
+D09：信用卡存款
+D091：贷记卡存款
+D092：准贷记卡存款
+D10：财政性存款
+D101：国库存款
+D1011：财政库款
+D1012：财政过渡存款
+D109：其他财政存款
+D1091：划缴财政存款
+D1092：待结算财政款项
+D1093：财政专用基金存款
+D1094：财政预算外存款
+D1095：国库定期存款
+D11：第三方存管存款
+D12：准备金存款
+D13：存放
+D14：特种存款
+D15：委托资金存款（净）
+D16：大额存单
+D99：其他存款
+必须填写最底层类别。</t>
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0">
@@ -312,7 +410,9 @@
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
       <text>
-        <t>日期格式：YYYY-MM-DD。, 通知存款若到期日不能确定，一天、七天提前通知存款的协议到期日分别填写“1999-01-01”、“1999-01-07”。, 如业务类型为活期等业务没有到期日，默认为“9999-12-31”。</t>
+        <t>日期格式：YYYY-MM-DD。
+通知存款若到期日不能确定，一天、七天提前通知存款的协议到期日分别填写“1999-01-01”、“1999-01-07”。
+如业务类型为活期等业务没有到期日，默认为“9999-12-31”。</t>
       </text>
     </comment>
     <comment ref="L1" authorId="0" shapeId="0">
@@ -322,7 +422,8 @@
     </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
-        <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。, 具体代码见码值表“C0004-币种”。</t>
+        <t>采用《表示货币和资金的代码》（GB/T 12406）最新标准中的三位字母型代码。
+具体代码见码值表“C0004-币种”。</t>
       </text>
     </comment>
     <comment ref="N1" authorId="0" shapeId="0">
@@ -382,17 +483,71 @@
     </comment>
     <comment ref="Y1" authorId="0" shapeId="0">
       <text>
-        <t>A：单位, A01：统一社会信用代码, A02：组织机构代码, A03：其他, B：自然人, B01：身份证, B02：户口簿, B03：护照, B04：军官证, B05：士兵证, B06：港澳居民来往内地通行证, B07：台湾同胞来往内地通行证, B08：临时身份证, B09：外国人居留证, B10：警官证, B11：外国人永久居留身份证, B12：港澳台居民居住证, B99：其他证件, C：资管产品, C01：资管产品统计编码, C02：资管产品登记备案编码, L01：全球法人识别编码（LEI码）, Z99：自定义码, 报数机构根据现有数据基础进行报送。</t>
+        <t>A：单位
+A01：统一社会信用代码
+A02：组织机构代码
+A03：其他
+B：自然人
+B01：身份证
+B02：户口簿
+B03：护照
+B04：军官证
+B05：士兵证
+B06：港澳居民来往内地通行证
+B07：台湾同胞来往内地通行证
+B08：临时身份证
+B09：外国人居留证
+B10：警官证
+B11：外国人永久居留身份证
+B12：港澳台居民居住证
+B99：其他证件
+C：资管产品
+C01：资管产品统计编码
+C02：资管产品登记备案编码
+L01：全球法人识别编码（LEI码）
+Z99：自定义码
+报数机构根据现有数据基础进行报送。</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="0" shapeId="0">
       <text>
-        <t>报数机构根据现有数据基础进行报送。, 境内机构填报统一社会信用代码，暂无统一社会信用代码的填报组织机构代码。身份证件代码根据人民银行统一加密规则加密报送。境内特定目的载体，已纳入《金融机构资产管理产品统计制度》的，填报“资管产品统计编码”；未纳入《金融机构资产管理产品统计制度》的，或暂未获取资管产品统计编码的，填报在行业管理部门登记备案的唯一产品编码。境外金融机构交易对手，填报该机构的全球法人识别编码（LEI 码），境外其他机构、特定目的载体以及暂无全球法人识别编码的境外金融机构填报报送机构自行设定的唯一编码。</t>
+        <t>报数机构根据现有数据基础进行报送。
+境内机构填报统一社会信用代码，暂无统一社会信用代码的填报组织机构代码。身份证件代码根据人民银行统一加密规则加密报送。境内特定目的载体，已纳入《金融机构资产管理产品统计制度》的，填报“资管产品统计编码”；未纳入《金融机构资产管理产品统计制度》的，或暂未获取资管产品统计编码的，填报在行业管理部门登记备案的唯一产品编码。境外金融机构交易对手，填报该机构的全球法人识别编码（LEI 码），境外其他机构、特定目的载体以及暂无全球法人识别编码的境外金融机构填报报送机构自行设定的唯一编码。</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="0" shapeId="0">
       <text>
-        <t>分为标准化用途和非标准化用途，标准化用途代码如下。, A：现金及等价物存取, B：转账, B01：工程及采购, B0101：购买煤炭类原材料, B0102：购买石油类原材料, B0103：购买/租赁机器设备, B0104：购买/租赁房产, B0105：工程款项, B0106：保证金, B02：费用, B0201：电费, B0202：水费, B0203：燃气费, B0204：蒸汽费, B0205：工资/奖金, B0206：除工资外的劳务费用, B0207：税款, B03：代扣、代付, B0301：代扣电费, B0302：代扣水费, B0303：代扣燃气费, B0304：代扣蒸汽费, B0305：代发工资, B0306：代缴税费, B0307：代缴社保, B04：收入, B05：融资, B06：金融产品交易, 标准化用途填写最小类别，如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定交易用途是B0101至B0106中的某一项，可填写B01，不可填B。, 无法区分标准化用途的在非标准化用途填报文字信息。</t>
+        <t>分为标准化用途和非标准化用途，标准化用途代码如下。
+A：现金及等价物存取
+B：转账
+B01：工程及采购
+B0101：购买煤炭类原材料
+B0102：购买石油类原材料
+B0103：购买/租赁机器设备
+B0104：购买/租赁房产
+B0105：工程款项
+B0106：保证金
+B02：费用
+B0201：电费
+B0202：水费
+B0203：燃气费
+B0204：蒸汽费
+B0205：工资/奖金
+B0206：除工资外的劳务费用
+B0207：税款
+B03：代扣、代付
+B0301：代扣电费
+B0302：代扣水费
+B0303：代扣燃气费
+B0304：代扣蒸汽费
+B0305：代发工资
+B0306：代缴税费
+B0307：代缴社保
+B04：收入
+B05：融资
+B06：金融产品交易
+标准化用途填写最小类别，如受实际情况所限不能确定最底层类别的，允许回溯一级。例如，若不能确定交易用途是B0101至B0106中的某一项，可填写B01，不可填B。
+无法区分标准化用途的在非标准化用途填报文字信息。</t>
       </text>
     </comment>
   </commentList>
